--- a/Assets/06.Table/DimensionLevel.xlsx
+++ b/Assets/06.Table/DimensionLevel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB64CBFD-4959-48D8-B651-5A72B721E007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E993ECD-8FF4-4EC2-BCE3-1772692D405B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DimensionLevel" sheetId="1" r:id="rId1"/>
@@ -507,9 +507,9 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -557,7 +557,7 @@
         <v>15001</v>
       </c>
       <c r="C3" s="4">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -569,7 +569,7 @@
         <v>15001</v>
       </c>
       <c r="C4" s="4">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -581,7 +581,7 @@
         <v>15001</v>
       </c>
       <c r="C5" s="4">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -593,7 +593,7 @@
         <v>15001</v>
       </c>
       <c r="C6" s="4">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -605,7 +605,7 @@
         <v>15001</v>
       </c>
       <c r="C7" s="4">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="G7" s="5"/>
     </row>
@@ -617,7 +617,7 @@
         <v>15001</v>
       </c>
       <c r="C8" s="4">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="I8" s="4"/>
     </row>
@@ -629,7 +629,7 @@
         <v>15001</v>
       </c>
       <c r="C9" s="4">
-        <v>800</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -640,7 +640,7 @@
         <v>15001</v>
       </c>
       <c r="C10" s="4">
-        <v>900</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -651,7 +651,7 @@
         <v>15001</v>
       </c>
       <c r="C11" s="4">
-        <v>1000</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -662,7 +662,7 @@
         <v>15001</v>
       </c>
       <c r="C12" s="4">
-        <v>1100</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -673,7 +673,7 @@
         <v>15001</v>
       </c>
       <c r="C13" s="4">
-        <v>1200</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -684,7 +684,7 @@
         <v>15001</v>
       </c>
       <c r="C14" s="4">
-        <v>1300</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -695,7 +695,7 @@
         <v>15001</v>
       </c>
       <c r="C15" s="4">
-        <v>1400</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -706,7 +706,7 @@
         <v>15001</v>
       </c>
       <c r="C16" s="4">
-        <v>1500</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -717,7 +717,7 @@
         <v>15001</v>
       </c>
       <c r="C17" s="4">
-        <v>1600</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -728,7 +728,7 @@
         <v>15001</v>
       </c>
       <c r="C18" s="4">
-        <v>1700</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -739,7 +739,7 @@
         <v>15001</v>
       </c>
       <c r="C19" s="4">
-        <v>1800</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -750,7 +750,7 @@
         <v>15001</v>
       </c>
       <c r="C20" s="4">
-        <v>1900</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -761,7 +761,7 @@
         <v>15001</v>
       </c>
       <c r="C21" s="4">
-        <v>2000</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -772,7 +772,7 @@
         <v>15001</v>
       </c>
       <c r="C22" s="4">
-        <v>2100</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -783,7 +783,7 @@
         <v>15001</v>
       </c>
       <c r="C23" s="4">
-        <v>2200</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -794,7 +794,7 @@
         <v>15001</v>
       </c>
       <c r="C24" s="4">
-        <v>2300</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -805,7 +805,7 @@
         <v>15001</v>
       </c>
       <c r="C25" s="4">
-        <v>2400</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -816,7 +816,7 @@
         <v>15001</v>
       </c>
       <c r="C26" s="4">
-        <v>2500</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -827,7 +827,7 @@
         <v>15001</v>
       </c>
       <c r="C27" s="4">
-        <v>2600</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -838,7 +838,7 @@
         <v>15001</v>
       </c>
       <c r="C28" s="4">
-        <v>2700</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -849,7 +849,7 @@
         <v>15001</v>
       </c>
       <c r="C29" s="4">
-        <v>2800</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -860,7 +860,7 @@
         <v>15001</v>
       </c>
       <c r="C30" s="4">
-        <v>2900</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -871,7 +871,7 @@
         <v>15001</v>
       </c>
       <c r="C31" s="4">
-        <v>3000</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -882,7 +882,7 @@
         <v>15001</v>
       </c>
       <c r="C32" s="4">
-        <v>3100</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -893,7 +893,7 @@
         <v>15001</v>
       </c>
       <c r="C33" s="4">
-        <v>3200</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -904,7 +904,7 @@
         <v>15001</v>
       </c>
       <c r="C34" s="4">
-        <v>3300</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -915,7 +915,7 @@
         <v>15001</v>
       </c>
       <c r="C35" s="4">
-        <v>3400</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -926,7 +926,7 @@
         <v>15001</v>
       </c>
       <c r="C36" s="4">
-        <v>3500</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -937,7 +937,7 @@
         <v>15001</v>
       </c>
       <c r="C37" s="4">
-        <v>3600</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -948,7 +948,7 @@
         <v>15001</v>
       </c>
       <c r="C38" s="4">
-        <v>3700</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -959,7 +959,7 @@
         <v>15001</v>
       </c>
       <c r="C39" s="4">
-        <v>3800</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -970,7 +970,7 @@
         <v>15001</v>
       </c>
       <c r="C40" s="4">
-        <v>3900</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -981,7 +981,7 @@
         <v>15001</v>
       </c>
       <c r="C41" s="4">
-        <v>4000</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -992,7 +992,7 @@
         <v>15001</v>
       </c>
       <c r="C42" s="4">
-        <v>4100</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1003,7 +1003,7 @@
         <v>15001</v>
       </c>
       <c r="C43" s="4">
-        <v>4200</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1014,7 +1014,7 @@
         <v>15001</v>
       </c>
       <c r="C44" s="4">
-        <v>4300</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1025,7 +1025,7 @@
         <v>15001</v>
       </c>
       <c r="C45" s="4">
-        <v>4400</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1036,7 +1036,7 @@
         <v>15001</v>
       </c>
       <c r="C46" s="4">
-        <v>4500</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1047,7 +1047,7 @@
         <v>15001</v>
       </c>
       <c r="C47" s="4">
-        <v>4600</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1058,7 +1058,7 @@
         <v>15001</v>
       </c>
       <c r="C48" s="4">
-        <v>4700</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1069,7 +1069,7 @@
         <v>15001</v>
       </c>
       <c r="C49" s="4">
-        <v>4800</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1080,7 +1080,7 @@
         <v>15001</v>
       </c>
       <c r="C50" s="4">
-        <v>4900</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1091,7 +1091,7 @@
         <v>15001</v>
       </c>
       <c r="C51" s="4">
-        <v>5000</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1102,7 +1102,7 @@
         <v>15001</v>
       </c>
       <c r="C52" s="4">
-        <v>5100</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1113,7 +1113,7 @@
         <v>15001</v>
       </c>
       <c r="C53" s="4">
-        <v>5200</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1124,7 +1124,7 @@
         <v>15001</v>
       </c>
       <c r="C54" s="4">
-        <v>5300</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1135,7 +1135,7 @@
         <v>15001</v>
       </c>
       <c r="C55" s="4">
-        <v>5400</v>
+        <v>11800</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1146,7 +1146,7 @@
         <v>15001</v>
       </c>
       <c r="C56" s="4">
-        <v>5500</v>
+        <v>12200</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1157,7 +1157,7 @@
         <v>15001</v>
       </c>
       <c r="C57" s="4">
-        <v>5600</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1168,7 +1168,7 @@
         <v>15001</v>
       </c>
       <c r="C58" s="4">
-        <v>5700</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1179,7 +1179,7 @@
         <v>15001</v>
       </c>
       <c r="C59" s="4">
-        <v>5800</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1190,7 +1190,7 @@
         <v>15001</v>
       </c>
       <c r="C60" s="4">
-        <v>5900</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1201,7 +1201,7 @@
         <v>15001</v>
       </c>
       <c r="C61" s="4">
-        <v>6000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1212,7 +1212,7 @@
         <v>15001</v>
       </c>
       <c r="C62" s="4">
-        <v>6100</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1223,7 +1223,7 @@
         <v>15001</v>
       </c>
       <c r="C63" s="4">
-        <v>6200</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1234,7 +1234,7 @@
         <v>15001</v>
       </c>
       <c r="C64" s="4">
-        <v>6300</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1245,7 +1245,7 @@
         <v>15001</v>
       </c>
       <c r="C65" s="4">
-        <v>6400</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1256,7 +1256,7 @@
         <v>15001</v>
       </c>
       <c r="C66" s="4">
-        <v>6500</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1267,7 +1267,7 @@
         <v>15001</v>
       </c>
       <c r="C67" s="4">
-        <v>6600</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1278,7 +1278,7 @@
         <v>15001</v>
       </c>
       <c r="C68" s="4">
-        <v>6700</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1289,7 +1289,7 @@
         <v>15001</v>
       </c>
       <c r="C69" s="4">
-        <v>6800</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1300,7 +1300,7 @@
         <v>15001</v>
       </c>
       <c r="C70" s="4">
-        <v>6900</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1311,7 +1311,7 @@
         <v>15001</v>
       </c>
       <c r="C71" s="4">
-        <v>7000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1322,7 +1322,7 @@
         <v>15001</v>
       </c>
       <c r="C72" s="4">
-        <v>7100</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1333,7 +1333,7 @@
         <v>15001</v>
       </c>
       <c r="C73" s="4">
-        <v>7200</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1344,7 +1344,7 @@
         <v>15001</v>
       </c>
       <c r="C74" s="4">
-        <v>7300</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1355,7 +1355,7 @@
         <v>15001</v>
       </c>
       <c r="C75" s="4">
-        <v>7400</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1366,7 +1366,7 @@
         <v>15001</v>
       </c>
       <c r="C76" s="4">
-        <v>7500</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1377,7 +1377,7 @@
         <v>15001</v>
       </c>
       <c r="C77" s="4">
-        <v>7600</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1388,7 +1388,7 @@
         <v>15001</v>
       </c>
       <c r="C78" s="4">
-        <v>7700</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1399,7 +1399,7 @@
         <v>15001</v>
       </c>
       <c r="C79" s="4">
-        <v>7800</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1410,7 +1410,7 @@
         <v>15001</v>
       </c>
       <c r="C80" s="4">
-        <v>7900</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1421,7 +1421,7 @@
         <v>15001</v>
       </c>
       <c r="C81" s="4">
-        <v>8000</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1432,7 +1432,7 @@
         <v>15001</v>
       </c>
       <c r="C82" s="4">
-        <v>8100</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1443,7 +1443,7 @@
         <v>15001</v>
       </c>
       <c r="C83" s="4">
-        <v>8200</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1454,7 +1454,7 @@
         <v>15001</v>
       </c>
       <c r="C84" s="4">
-        <v>8300</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1465,7 +1465,7 @@
         <v>15001</v>
       </c>
       <c r="C85" s="4">
-        <v>8400</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -1476,7 +1476,7 @@
         <v>15001</v>
       </c>
       <c r="C86" s="4">
-        <v>8500</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1487,7 +1487,7 @@
         <v>15001</v>
       </c>
       <c r="C87" s="4">
-        <v>8600</v>
+        <v>64000</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1498,7 +1498,7 @@
         <v>15001</v>
       </c>
       <c r="C88" s="4">
-        <v>8700</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1509,7 +1509,7 @@
         <v>15001</v>
       </c>
       <c r="C89" s="4">
-        <v>8800</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1520,7 +1520,7 @@
         <v>15001</v>
       </c>
       <c r="C90" s="4">
-        <v>8900</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -1531,7 +1531,7 @@
         <v>15001</v>
       </c>
       <c r="C91" s="4">
-        <v>9000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -1542,7 +1542,7 @@
         <v>15001</v>
       </c>
       <c r="C92" s="4">
-        <v>9100</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -1553,7 +1553,7 @@
         <v>15001</v>
       </c>
       <c r="C93" s="4">
-        <v>9200</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -1564,7 +1564,7 @@
         <v>15001</v>
       </c>
       <c r="C94" s="4">
-        <v>9300</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -1575,7 +1575,7 @@
         <v>15001</v>
       </c>
       <c r="C95" s="4">
-        <v>9400</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -1586,7 +1586,7 @@
         <v>15001</v>
       </c>
       <c r="C96" s="4">
-        <v>9500</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -1597,7 +1597,7 @@
         <v>15001</v>
       </c>
       <c r="C97" s="4">
-        <v>9600</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -1608,7 +1608,7 @@
         <v>15001</v>
       </c>
       <c r="C98" s="4">
-        <v>9700</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -1619,7 +1619,7 @@
         <v>15001</v>
       </c>
       <c r="C99" s="4">
-        <v>9800</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -1630,7 +1630,7 @@
         <v>15001</v>
       </c>
       <c r="C100" s="4">
-        <v>9900</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -1641,7 +1641,7 @@
         <v>15001</v>
       </c>
       <c r="C101" s="4">
-        <v>10000</v>
+        <v>150000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DimensionLevel.xlsx
+++ b/Assets/06.Table/DimensionLevel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E993ECD-8FF4-4EC2-BCE3-1772692D405B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A53CE1E-46A5-4C53-812B-A58DCC9D1B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -504,12 +504,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1644,6 +1644,336 @@
         <v>150000</v>
       </c>
     </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>100</v>
+      </c>
+      <c r="B102" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C102" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>101</v>
+      </c>
+      <c r="B103" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C103" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>102</v>
+      </c>
+      <c r="B104" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C104" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>103</v>
+      </c>
+      <c r="B105" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C105" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>104</v>
+      </c>
+      <c r="B106" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C106" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>105</v>
+      </c>
+      <c r="B107" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C107" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>106</v>
+      </c>
+      <c r="B108" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C108" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>107</v>
+      </c>
+      <c r="B109" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C109" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>108</v>
+      </c>
+      <c r="B110" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C110" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>109</v>
+      </c>
+      <c r="B111" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C111" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>110</v>
+      </c>
+      <c r="B112" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C112" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>111</v>
+      </c>
+      <c r="B113" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C113" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>112</v>
+      </c>
+      <c r="B114" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C114" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>113</v>
+      </c>
+      <c r="B115" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C115" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>114</v>
+      </c>
+      <c r="B116" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C116" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>115</v>
+      </c>
+      <c r="B117" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C117" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>116</v>
+      </c>
+      <c r="B118" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C118" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>117</v>
+      </c>
+      <c r="B119" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C119" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>118</v>
+      </c>
+      <c r="B120" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C120" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>119</v>
+      </c>
+      <c r="B121" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C121" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>120</v>
+      </c>
+      <c r="B122" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C122" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
+        <v>121</v>
+      </c>
+      <c r="B123" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C123" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
+        <v>122</v>
+      </c>
+      <c r="B124" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C124" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
+        <v>123</v>
+      </c>
+      <c r="B125" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C125" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
+        <v>124</v>
+      </c>
+      <c r="B126" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C126" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
+        <v>125</v>
+      </c>
+      <c r="B127" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C127" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
+        <v>126</v>
+      </c>
+      <c r="B128" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C128" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
+        <v>127</v>
+      </c>
+      <c r="B129" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C129" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
+        <v>128</v>
+      </c>
+      <c r="B130" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C130" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="3">
+        <v>129</v>
+      </c>
+      <c r="B131" s="4">
+        <v>15001</v>
+      </c>
+      <c r="C131" s="4">
+        <v>150000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
